--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksim_rakomin/sites/shooter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{048C6C0A-2958-924B-BE22-F8E2A8D1DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB09A5B-7BD5-704B-B037-8CAE2A2A053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{8AADD4D7-86C2-E245-9BEF-84EA3E26C2A4}"/>
   </bookViews>
@@ -35,9 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>tets</t>
+  </si>
+  <si>
+    <t>asd fasfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s </t>
+  </si>
+  <si>
+    <t>asd f</t>
+  </si>
+  <si>
+    <t>d f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afsd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd </t>
+  </si>
+  <si>
+    <t>fasfd</t>
   </si>
 </sst>
 </file>
@@ -390,17 +417,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2305FA7-6428-3341-B362-2A4E9ED026DF}">
-  <dimension ref="D4"/>
+  <dimension ref="D4:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
